--- a/biology/Microbiologie/Thermodesulfobacteria/Thermodesulfobacteria.xlsx
+++ b/biology/Microbiologie/Thermodesulfobacteria/Thermodesulfobacteria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Thermodesulfobacteria sont un petit groupe de bactéries thermophiles qui utilisent le sulfate comme agent oxydant (ce genre d'organisme est appelé en anglais dissimilatory). La classe des Thermodesulfobacteria ne comporte que l'ordre des Thermodesulfobacteriales et la famille des Thermodesulfobacteriaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (5 janv. 2011)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (5 janv. 2011) :
 genre Caldimicrobium
 genre Geothermobacterium
 genre Thermodesulfatator
